--- a/GRE/Vocabulario.xlsx
+++ b/GRE/Vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandro\Desktop\Felisa\GRE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana\Desktop\Felisa\GRE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="206">
   <si>
     <t>Sporadic</t>
   </si>
@@ -606,6 +606,42 @@
   </si>
   <si>
     <t>Erudite</t>
+  </si>
+  <si>
+    <t>Aberrante</t>
+  </si>
+  <si>
+    <t>Anormal, Anómalo, Extravagante, Irregular, Errado</t>
+  </si>
+  <si>
+    <t>Fugarse</t>
+  </si>
+  <si>
+    <t>Huir, Evadr, Esconderse,</t>
+  </si>
+  <si>
+    <t>Amonestar</t>
+  </si>
+  <si>
+    <t>Advertir, Exhortar, Aconsejar</t>
+  </si>
+  <si>
+    <t>Amalgamar</t>
+  </si>
+  <si>
+    <t>Fusionar, unir</t>
+  </si>
+  <si>
+    <t>Anacrónico</t>
+  </si>
+  <si>
+    <t>Atemporal</t>
+  </si>
+  <si>
+    <t>Ascético</t>
+  </si>
+  <si>
+    <t>Asceta</t>
   </si>
 </sst>
 </file>
@@ -621,18 +657,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -649,7 +679,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -930,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A197"/>
+  <dimension ref="A1:C197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H108" sqref="H108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,82 +972,118 @@
     <col min="2" max="2" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>169</v>
       </c>
